--- a/data/available_languages.xlsx
+++ b/data/available_languages.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wolfram_3387/PycharmProjects/Kenny/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2E8943-43BF-C14B-8632-8CB3F3F6826F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F6A2FE-2C7C-A649-8E99-FDD019A48369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{63C365EB-F50A-714A-9B85-A7FC50942846}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$D$168</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1925,9 +1928,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B89FF6F-F7B2-2B44-AFFE-FEF134AE7F82}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1950,7 +1956,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +1970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1978,7 +1984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1992,7 +1998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2006,7 +2012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -2034,7 +2040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -2048,7 +2054,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2076,7 +2082,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -2104,7 +2110,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -2118,7 +2124,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -2146,7 +2152,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -2160,7 +2166,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -2174,7 +2180,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
@@ -2188,7 +2194,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
@@ -2202,7 +2208,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>54</v>
       </c>
@@ -2216,7 +2222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
@@ -2230,7 +2236,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>60</v>
       </c>
@@ -2244,7 +2250,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>63</v>
       </c>
@@ -2258,7 +2264,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -2272,7 +2278,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>69</v>
       </c>
@@ -2286,7 +2292,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
@@ -2300,7 +2306,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -2314,7 +2320,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>78</v>
       </c>
@@ -2328,7 +2334,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>81</v>
       </c>
@@ -2342,7 +2348,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
@@ -2356,7 +2362,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>87</v>
       </c>
@@ -2370,7 +2376,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>90</v>
       </c>
@@ -2384,7 +2390,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>93</v>
       </c>
@@ -2398,7 +2404,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>96</v>
       </c>
@@ -2412,7 +2418,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>99</v>
       </c>
@@ -2426,7 +2432,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>102</v>
       </c>
@@ -2440,7 +2446,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>105</v>
       </c>
@@ -2454,7 +2460,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>108</v>
       </c>
@@ -2468,7 +2474,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>111</v>
       </c>
@@ -2482,7 +2488,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>114</v>
       </c>
@@ -2496,7 +2502,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>504</v>
       </c>
@@ -2510,7 +2516,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>119</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>122</v>
       </c>
@@ -2538,7 +2544,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>125</v>
       </c>
@@ -2552,7 +2558,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>128</v>
       </c>
@@ -2566,7 +2572,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>131</v>
       </c>
@@ -2580,7 +2586,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>134</v>
       </c>
@@ -2594,7 +2600,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>137</v>
       </c>
@@ -2608,7 +2614,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>140</v>
       </c>
@@ -2622,7 +2628,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>143</v>
       </c>
@@ -2636,7 +2642,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>146</v>
       </c>
@@ -2650,7 +2656,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>149</v>
       </c>
@@ -2692,7 +2698,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>158</v>
       </c>
@@ -2706,7 +2712,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>161</v>
       </c>
@@ -2720,7 +2726,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>164</v>
       </c>
@@ -2734,7 +2740,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>167</v>
       </c>
@@ -2748,7 +2754,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>170</v>
       </c>
@@ -2762,7 +2768,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>173</v>
       </c>
@@ -2776,7 +2782,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>176</v>
       </c>
@@ -2790,7 +2796,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>179</v>
       </c>
@@ -2804,7 +2810,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>182</v>
       </c>
@@ -2818,7 +2824,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>185</v>
       </c>
@@ -2846,7 +2852,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>191</v>
       </c>
@@ -2860,7 +2866,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>194</v>
       </c>
@@ -2874,7 +2880,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>197</v>
       </c>
@@ -2888,7 +2894,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>200</v>
       </c>
@@ -2902,7 +2908,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>203</v>
       </c>
@@ -2916,7 +2922,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>206</v>
       </c>
@@ -2930,7 +2936,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>209</v>
       </c>
@@ -2944,7 +2950,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>212</v>
       </c>
@@ -2958,7 +2964,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>215</v>
       </c>
@@ -2972,7 +2978,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>218</v>
       </c>
@@ -2986,7 +2992,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>221</v>
       </c>
@@ -3000,7 +3006,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>224</v>
       </c>
@@ -3014,7 +3020,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>227</v>
       </c>
@@ -3028,7 +3034,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>230</v>
       </c>
@@ -3042,7 +3048,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>233</v>
       </c>
@@ -3056,7 +3062,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>236</v>
       </c>
@@ -3070,7 +3076,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>239</v>
       </c>
@@ -3084,7 +3090,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>242</v>
       </c>
@@ -3098,7 +3104,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>245</v>
       </c>
@@ -3112,7 +3118,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>248</v>
       </c>
@@ -3126,7 +3132,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>251</v>
       </c>
@@ -3140,7 +3146,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>254</v>
       </c>
@@ -3154,7 +3160,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>257</v>
       </c>
@@ -3168,7 +3174,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>260</v>
       </c>
@@ -3182,7 +3188,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>263</v>
       </c>
@@ -3196,7 +3202,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>266</v>
       </c>
@@ -3210,7 +3216,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>269</v>
       </c>
@@ -3224,7 +3230,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>272</v>
       </c>
@@ -3238,7 +3244,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>275</v>
       </c>
@@ -3252,7 +3258,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>278</v>
       </c>
@@ -3280,7 +3286,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>284</v>
       </c>
@@ -3294,7 +3300,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>287</v>
       </c>
@@ -3308,7 +3314,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>290</v>
       </c>
@@ -3322,7 +3328,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>293</v>
       </c>
@@ -3336,7 +3342,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>296</v>
       </c>
@@ -3350,7 +3356,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>299</v>
       </c>
@@ -3364,7 +3370,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>302</v>
       </c>
@@ -3378,7 +3384,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>305</v>
       </c>
@@ -3392,7 +3398,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>308</v>
       </c>
@@ -3406,7 +3412,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>311</v>
       </c>
@@ -3420,7 +3426,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>314</v>
       </c>
@@ -3434,7 +3440,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>317</v>
       </c>
@@ -3448,7 +3454,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>320</v>
       </c>
@@ -3462,7 +3468,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>323</v>
       </c>
@@ -3476,7 +3482,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>326</v>
       </c>
@@ -3490,7 +3496,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>329</v>
       </c>
@@ -3504,7 +3510,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>332</v>
       </c>
@@ -3532,7 +3538,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>338</v>
       </c>
@@ -3546,7 +3552,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>341</v>
       </c>
@@ -3560,7 +3566,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>344</v>
       </c>
@@ -3574,7 +3580,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>347</v>
       </c>
@@ -3588,7 +3594,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>350</v>
       </c>
@@ -3602,7 +3608,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>353</v>
       </c>
@@ -3616,7 +3622,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>356</v>
       </c>
@@ -3630,7 +3636,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>359</v>
       </c>
@@ -3644,7 +3650,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>362</v>
       </c>
@@ -3658,7 +3664,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>365</v>
       </c>
@@ -3672,7 +3678,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>368</v>
       </c>
@@ -3686,7 +3692,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>371</v>
       </c>
@@ -3700,7 +3706,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>374</v>
       </c>
@@ -3714,7 +3720,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>377</v>
       </c>
@@ -3728,7 +3734,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>380</v>
       </c>
@@ -3742,7 +3748,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>383</v>
       </c>
@@ -3756,7 +3762,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>386</v>
       </c>
@@ -3770,7 +3776,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>389</v>
       </c>
@@ -3784,7 +3790,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>392</v>
       </c>
@@ -3798,7 +3804,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>395</v>
       </c>
@@ -3812,7 +3818,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>398</v>
       </c>
@@ -3826,7 +3832,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>401</v>
       </c>
@@ -3840,7 +3846,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>404</v>
       </c>
@@ -3854,7 +3860,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>407</v>
       </c>
@@ -3868,7 +3874,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>410</v>
       </c>
@@ -3882,7 +3888,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>413</v>
       </c>
@@ -3896,7 +3902,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>416</v>
       </c>
@@ -3910,7 +3916,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>419</v>
       </c>
@@ -3924,7 +3930,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>422</v>
       </c>
@@ -3938,7 +3944,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>425</v>
       </c>
@@ -3952,7 +3958,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>428</v>
       </c>
@@ -3966,7 +3972,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>431</v>
       </c>
@@ -3980,7 +3986,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>434</v>
       </c>
@@ -3994,7 +4000,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>437</v>
       </c>
@@ -4008,7 +4014,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>440</v>
       </c>
@@ -4022,7 +4028,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>443</v>
       </c>
@@ -4050,7 +4056,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>449</v>
       </c>
@@ -4064,7 +4070,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>452</v>
       </c>
@@ -4078,7 +4084,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>455</v>
       </c>
@@ -4092,7 +4098,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>458</v>
       </c>
@@ -4106,7 +4112,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>461</v>
       </c>
@@ -4120,7 +4126,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>464</v>
       </c>
@@ -4134,7 +4140,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>467</v>
       </c>
@@ -4148,7 +4154,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>470</v>
       </c>
@@ -4162,7 +4168,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>473</v>
       </c>
@@ -4176,7 +4182,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>476</v>
       </c>
@@ -4190,7 +4196,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>479</v>
       </c>
@@ -4204,7 +4210,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>482</v>
       </c>
@@ -4218,7 +4224,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>485</v>
       </c>
@@ -4232,7 +4238,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>488</v>
       </c>
@@ -4246,7 +4252,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>491</v>
       </c>
@@ -4260,7 +4266,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>494</v>
       </c>
@@ -4274,7 +4280,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>497</v>
       </c>
@@ -4289,6 +4295,19 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D168" xr:uid="{6B89FF6F-F7B2-2B44-AFFE-FEF134AE7F82}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Английский"/>
+        <filter val="Испанский"/>
+        <filter val="Итальянский"/>
+        <filter val="Китайский"/>
+        <filter val="Немецкий"/>
+        <filter val="Русский"/>
+        <filter val="Французский"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>